--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.002483333333334</v>
+        <v>5.115481333333334</v>
       </c>
       <c r="H2">
-        <v>9.00745</v>
+        <v>15.346444</v>
       </c>
       <c r="I2">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127355</v>
       </c>
       <c r="J2">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127354</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918807333333334</v>
+        <v>1.593166333333333</v>
       </c>
       <c r="N2">
-        <v>29.756422</v>
+        <v>4.779498999999999</v>
       </c>
       <c r="O2">
-        <v>0.3718576623636295</v>
+        <v>0.08683039593887641</v>
       </c>
       <c r="P2">
-        <v>0.3718576623636295</v>
+        <v>0.0868303959388764</v>
       </c>
       <c r="Q2">
-        <v>29.78105370487778</v>
+        <v>8.149812639061778</v>
       </c>
       <c r="R2">
-        <v>268.0294833439</v>
+        <v>73.34831375155601</v>
       </c>
       <c r="S2">
-        <v>0.04545017035906244</v>
+        <v>0.01664946926838566</v>
       </c>
       <c r="T2">
-        <v>0.04545017035906244</v>
+        <v>0.01664946926838565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.002483333333334</v>
+        <v>5.115481333333334</v>
       </c>
       <c r="H3">
-        <v>9.00745</v>
+        <v>15.346444</v>
       </c>
       <c r="I3">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127355</v>
       </c>
       <c r="J3">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127354</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.835028</v>
       </c>
       <c r="O3">
-        <v>0.3478465402831756</v>
+        <v>0.5056861612921587</v>
       </c>
       <c r="P3">
-        <v>0.3478465402831757</v>
+        <v>0.5056861612921587</v>
       </c>
       <c r="Q3">
-        <v>27.85806921762223</v>
+        <v>47.46318871560356</v>
       </c>
       <c r="R3">
-        <v>250.7226229586</v>
+        <v>427.1686984404321</v>
       </c>
       <c r="S3">
-        <v>0.04251541951345068</v>
+        <v>0.0969638121632946</v>
       </c>
       <c r="T3">
-        <v>0.04251541951345068</v>
+        <v>0.09696381216329458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.002483333333334</v>
+        <v>5.115481333333334</v>
       </c>
       <c r="H4">
-        <v>9.00745</v>
+        <v>15.346444</v>
       </c>
       <c r="I4">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127355</v>
       </c>
       <c r="J4">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127354</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.476516666666668</v>
+        <v>7.476516666666666</v>
       </c>
       <c r="N4">
         <v>22.42955</v>
       </c>
       <c r="O4">
-        <v>0.2802957973531948</v>
+        <v>0.407483442768965</v>
       </c>
       <c r="P4">
-        <v>0.2802957973531948</v>
+        <v>0.4074834427689649</v>
       </c>
       <c r="Q4">
-        <v>22.44811668305556</v>
+        <v>38.24598144668889</v>
       </c>
       <c r="R4">
-        <v>202.0330501475</v>
+        <v>344.2138330202</v>
       </c>
       <c r="S4">
-        <v>0.03425905401452867</v>
+        <v>0.07813373398105525</v>
       </c>
       <c r="T4">
-        <v>0.03425905401452867</v>
+        <v>0.07813373398105522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>35.913111</v>
       </c>
       <c r="I5">
-        <v>0.4873151894099666</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="J5">
-        <v>0.4873151894099665</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.918807333333334</v>
+        <v>1.593166333333333</v>
       </c>
       <c r="N5">
-        <v>29.756422</v>
+        <v>4.779498999999999</v>
       </c>
       <c r="O5">
-        <v>0.3718576623636295</v>
+        <v>0.08683039593887641</v>
       </c>
       <c r="P5">
-        <v>0.3718576623636295</v>
+        <v>0.0868303959388764</v>
       </c>
       <c r="Q5">
-        <v>118.7384095832047</v>
+        <v>19.07185312348767</v>
       </c>
       <c r="R5">
-        <v>1068.645686248842</v>
+        <v>171.646678111389</v>
       </c>
       <c r="S5">
-        <v>0.1812118871682795</v>
+        <v>0.03896239662599511</v>
       </c>
       <c r="T5">
-        <v>0.1812118871682795</v>
+        <v>0.0389623966259951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>35.913111</v>
       </c>
       <c r="I6">
-        <v>0.4873151894099666</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="J6">
-        <v>0.4873151894099665</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.835028</v>
       </c>
       <c r="O6">
-        <v>0.3478465402831756</v>
+        <v>0.5056861612921587</v>
       </c>
       <c r="P6">
-        <v>0.3478465402831757</v>
+        <v>0.5056861612921587</v>
       </c>
       <c r="Q6">
         <v>111.0713833613453</v>
@@ -818,10 +818,10 @@
         <v>999.642450252108</v>
       </c>
       <c r="S6">
-        <v>0.1695109026636973</v>
+        <v>0.2269106868798758</v>
       </c>
       <c r="T6">
-        <v>0.1695109026636973</v>
+        <v>0.2269106868798758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>35.913111</v>
       </c>
       <c r="I7">
-        <v>0.4873151894099666</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="J7">
-        <v>0.4873151894099665</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.476516666666668</v>
+        <v>7.476516666666666</v>
       </c>
       <c r="N7">
         <v>22.42955</v>
       </c>
       <c r="O7">
-        <v>0.2802957973531948</v>
+        <v>0.407483442768965</v>
       </c>
       <c r="P7">
-        <v>0.2802957973531948</v>
+        <v>0.4074834427689649</v>
       </c>
       <c r="Q7">
-        <v>89.50165764778335</v>
+        <v>89.50165764778333</v>
       </c>
       <c r="R7">
-        <v>805.5149188300501</v>
+        <v>805.51491883005</v>
       </c>
       <c r="S7">
-        <v>0.1365923995779897</v>
+        <v>0.1828453198217195</v>
       </c>
       <c r="T7">
-        <v>0.1365923995779897</v>
+        <v>0.1828453198217195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>28.775297</v>
       </c>
       <c r="I8">
-        <v>0.3904601667029917</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="J8">
-        <v>0.3904601667029917</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.918807333333334</v>
+        <v>1.593166333333333</v>
       </c>
       <c r="N8">
-        <v>29.756422</v>
+        <v>4.779498999999999</v>
       </c>
       <c r="O8">
-        <v>0.3718576623636295</v>
+        <v>0.08683039593887641</v>
       </c>
       <c r="P8">
-        <v>0.3718576623636295</v>
+        <v>0.0868303959388764</v>
       </c>
       <c r="Q8">
-        <v>95.13887563414823</v>
+        <v>15.28127813735589</v>
       </c>
       <c r="R8">
-        <v>856.2498807073341</v>
+        <v>137.531503236203</v>
       </c>
       <c r="S8">
-        <v>0.1451956048362876</v>
+        <v>0.03121853004449565</v>
       </c>
       <c r="T8">
-        <v>0.1451956048362876</v>
+        <v>0.03121853004449564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>28.775297</v>
       </c>
       <c r="I9">
-        <v>0.3904601667029917</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="J9">
-        <v>0.3904601667029917</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>27.835028</v>
       </c>
       <c r="O9">
-        <v>0.3478465402831756</v>
+        <v>0.5056861612921587</v>
       </c>
       <c r="P9">
-        <v>0.3478465402831757</v>
+        <v>0.5056861612921587</v>
       </c>
       <c r="Q9">
         <v>88.99568863370179</v>
@@ -1004,10 +1004,10 @@
         <v>800.9611977033161</v>
       </c>
       <c r="S9">
-        <v>0.1358202181060277</v>
+        <v>0.1818116622489884</v>
       </c>
       <c r="T9">
-        <v>0.1358202181060277</v>
+        <v>0.1818116622489884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>28.775297</v>
       </c>
       <c r="I10">
-        <v>0.3904601667029917</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="J10">
-        <v>0.3904601667029917</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.476516666666668</v>
+        <v>7.476516666666666</v>
       </c>
       <c r="N10">
         <v>22.42955</v>
       </c>
       <c r="O10">
-        <v>0.2802957973531948</v>
+        <v>0.407483442768965</v>
       </c>
       <c r="P10">
-        <v>0.2802957973531948</v>
+        <v>0.4074834427689649</v>
       </c>
       <c r="Q10">
-        <v>71.71299586959447</v>
+        <v>71.71299586959444</v>
       </c>
       <c r="R10">
-        <v>645.4169628263501</v>
+        <v>645.41696282635</v>
       </c>
       <c r="S10">
-        <v>0.1094443437606764</v>
+        <v>0.1465043889661903</v>
       </c>
       <c r="T10">
-        <v>0.1094443437606764</v>
+        <v>0.1465043889661903</v>
       </c>
     </row>
   </sheetData>
